--- a/biology/Histoire de la zoologie et de la botanique/Daniel_Giraud_Elliot/Daniel_Giraud_Elliot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Daniel_Giraud_Elliot/Daniel_Giraud_Elliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Giraud Elliot, né le 7 mars 1835 à New York et mort dans la même ville le 22 décembre 1915, est un zoologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1856-1857, il voyage en Europe où il étudie la zoologie. Il se consacre particulièrement aux mammifères et publie, en 1859, son premier article scientifique dans la revue The Ibis. Son œuvre scientifique lui vaut rapidement la reconnaissance internationale.
 Elliot est l'un des créateurs de l'American Museum of Natural History de New York (1887) et de l'American Ornithologists' Union dont il assure la présidence de 1890 à 1892. Il est aussi le conservateur des collections de zoologie du Field Museum de Chicago (1894). Il participera à l'activité de nombreuses sociétés savantes étrangères notamment à la création de la Société zoologique de France.
